--- a/biology/Botanique/Jardin_pédagogique/Jardin_pédagogique.xlsx
+++ b/biology/Botanique/Jardin_pédagogique/Jardin_pédagogique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_p%C3%A9dagogique</t>
+          <t>Jardin_pédagogique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jardin pédagogique est un espace multidisciplinaire permettant l’apprentissage du jardinage et de valeurs comme le travail en commun, la patience, le respect de la nature et d’autrui, dispensé par des activités.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_p%C3%A9dagogique</t>
+          <t>Jardin_pédagogique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En Bourgogne, l'association Alôsnys[1] développe depuis 2012 un jardin pédagogique pour accueillir des écoles lors de classes vertes et des centres de loisirs, cultivant le jardin suivant les règles de la permaculture.
-En Suisse, la Ferme de Rovéréaz comprend un jardin pédagogique bio, « Le Jardin aux 1 000 mains »[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En Bourgogne, l'association Alôsnys développe depuis 2012 un jardin pédagogique pour accueillir des écoles lors de classes vertes et des centres de loisirs, cultivant le jardin suivant les règles de la permaculture.
+En Suisse, la Ferme de Rovéréaz comprend un jardin pédagogique bio, « Le Jardin aux 1 000 mains ».</t>
         </is>
       </c>
     </row>
